--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1734433.315648465</v>
+        <v>1784808.25126315</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484438</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6167391.199201811</v>
+        <v>6183033.661114836</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>190.8809176600651</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>227.4603528348329</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>27.81938947325714</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -877,7 +877,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>72.7237327408817</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>418.2942882004972</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>325.5800738246913</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>137.2470510215434</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>100.176219543324</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>245.440512489918</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>287.0790000802538</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,13 +1373,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426787</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>155.577622560262</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>81.49380289235447</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.670777199071</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783088969</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,13 +1768,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>108.3408915168848</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>181.0735581446558</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>263.4110060287065</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>193.8659438253738</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>73.01514676193563</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430621</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>98.73120706589857</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7884964950064</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>43.48898701015924</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828359028</v>
       </c>
       <c r="G37" t="n">
-        <v>94.21878984361669</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>141.9873058561436</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430585</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>411.068143180721</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,7 +3752,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>390.9958265002884</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>116.3527098704437</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>34.21677751456843</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>18.64034175572516</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>32.67077719907376</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>161.7725533806633</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.88277234054682</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>548.3728793740404</v>
+        <v>2070.919196684487</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>1632.776723867911</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>1196.866939042355</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>763.0921942006503</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>335.2247646098581</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>335.2247646098581</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.09461005307434</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299066</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.73696925766</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>2283.075983462154</v>
       </c>
       <c r="X2" t="n">
-        <v>1382.958573559295</v>
+        <v>2267.973924081869</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.6724498589482</v>
+        <v>2263.728204421927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400187</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067194</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245367</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.04406200893879</v>
+        <v>553.8755287447295</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>381.3138172279544</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>215.4358244294771</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>320.4362752513499</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>738.646157019311</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1640.388827357869</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2060.05807658365</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716089</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2103.231844014086</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1857.352397592541</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1578.919396845646</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1291.963888716077</v>
       </c>
       <c r="W4" t="n">
-        <v>726.6741060804052</v>
+        <v>1218.505572816196</v>
       </c>
       <c r="X4" t="n">
-        <v>481.2823514138177</v>
+        <v>973.1138181496085</v>
       </c>
       <c r="Y4" t="n">
-        <v>253.8626807279259</v>
+        <v>745.6941474637167</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D5" t="n">
-        <v>1192.077691008219</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.5714734656729</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>301.0097619488978</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D7" t="n">
-        <v>135.1317691504205</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.39009218466</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W8" t="n">
-        <v>1407.204642120565</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X8" t="n">
-        <v>988.0621786998757</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.7760549995292</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847292</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5063,28 +5063,28 @@
         <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580462</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777446</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284818</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5215,34 +5215,34 @@
         <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719582</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2450.419423968744</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2171.98642322185</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1885.03091509228</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1613.004510678571</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1367.612756011984</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5258,22 +5258,22 @@
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,34 +5282,34 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2492.071939528658</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O14" t="n">
-        <v>3472.251606098964</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P14" t="n">
-        <v>4300.561480932361</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.798049006192</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>829.3290795054901</v>
+        <v>921.2561952691946</v>
       </c>
       <c r="C16" t="n">
-        <v>656.767367988715</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="D16" t="n">
-        <v>490.8893751902377</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E16" t="n">
-        <v>490.8893751902377</v>
+        <v>578.9364800031567</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>402.2294259649129</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169402</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849013</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
         <v>1335.767865365814</v>
@@ -5449,37 +5449,37 @@
         <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.69591774924</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719582</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
         <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2423.301152630834</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418843</v>
+        <v>2144.868151883939</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1857.912643754369</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875565</v>
+        <v>1585.886239340661</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1340.494484674073</v>
       </c>
       <c r="Y16" t="n">
-        <v>1021.147698224477</v>
+        <v>1113.074813988182</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423109</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068555</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068555</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941594</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.87789125861</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997291</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033252</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180001</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563213</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2310.122143200623</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2114.297957518427</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1842.271553104719</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438131</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.460127752239</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5789,13 +5789,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957678</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789928</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>611.1385207805155</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3805170312527</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>264.673462993009</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>264.673462993009</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5914,46 +5914,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167234</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814755</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.8497331100115</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>677.2880215932364</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2597.774136893195</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2351.894690471651</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2073.461689724756</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.506181595186</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1514.479777181478</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1269.08802251489</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1041.668351828999</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957673</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789922</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805149</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312521</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930083</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6388,7 +6388,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903955</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736204</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751432</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258804</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0912842876367</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109383</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6835,19 +6835,19 @@
         <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903952</v>
+        <v>970.9960463903958</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736201</v>
+        <v>798.4343348736207</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751428</v>
+        <v>632.5563420751434</v>
       </c>
       <c r="E37" t="n">
-        <v>462.79833832588</v>
+        <v>462.7983383258808</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876362</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7096,10 +7096,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066049</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7123,22 +7123,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V37" t="n">
         <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7199,10 +7199,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>982.1554751127516</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405614</v>
+        <v>809.5937635959765</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420841</v>
+        <v>809.5937635959765</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928213</v>
+        <v>639.8357598467138</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545776</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,10 +7333,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376324</v>
+        <v>982.1554751127516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455157</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.040861638581</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.131076813025</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.35633197132</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>784.4889023805281</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410832</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526186</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399224</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716241</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650067</v>
+        <v>4170.46278304646</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.911492061101</v>
+        <v>3765.607328457493</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.769028640412</v>
+        <v>3346.464865036804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940065</v>
+        <v>2938.178741336457</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>830.2028635873863</v>
+        <v>999.0870832547528</v>
       </c>
       <c r="C43" t="n">
-        <v>830.2028635873863</v>
+        <v>826.5253717379777</v>
       </c>
       <c r="D43" t="n">
-        <v>664.324870788909</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E43" t="n">
-        <v>494.5668670396462</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654739</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2578.12726737057</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T43" t="n">
-        <v>2332.247820949025</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U43" t="n">
-        <v>2053.814820202131</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V43" t="n">
-        <v>1766.859312072561</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W43" t="n">
-        <v>1494.832907658853</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X43" t="n">
-        <v>1249.441152992265</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.021482306373</v>
+        <v>1190.90570197374</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939373</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172012</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7661,37 +7661,37 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.79804900619</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>1084.662814845622</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>912.1011033288471</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N46" t="n">
         <v>1778.026668523459</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.692136662472</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.812690240927</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.379689494032</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.424181364463</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1749.292858917089</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697876</v>
+        <v>1503.901104250501</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1276.481433564609</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>527.3158022709912</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320323</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>226.0938963909771</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,13 +8380,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>371.7091627680287</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>541.653892043837</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504358</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11063,10 +11063,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>161.9268490649748</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.14457787893036</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>268.011132734622</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>135.0797604404445</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.07191583437702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>95.57977453680525</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>90.22000922290006</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>65.4880058045936</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>120.4463752142671</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>58.91774794908473</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.146865729424178</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4463752142714</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>120.4463752142711</v>
       </c>
       <c r="G37" t="n">
-        <v>69.71657238081391</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>32.95267764171776</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>10.96843159933769</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.388026562680295</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>41.29624514453956</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>190.9286964644644</v>
       </c>
     </row>
     <row r="44">
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>185.195777656618</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.446659489829216</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>117.7661826744365</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>535007.9300838506</v>
+        <v>538016.3770339433</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>535007.9300838506</v>
+        <v>539996.5309069175</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>535007.9300838506</v>
+        <v>539996.5309069175</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518675.2045613436</v>
+        <v>518675.2045613435</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>518675.2045613435</v>
+        <v>518675.2045613436</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>525994.2161359824</v>
+        <v>540563.8908933386</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>540563.8908933386</v>
+        <v>540563.8908933387</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540563.8908933386</v>
+        <v>540563.8908933387</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>533244.8793187001</v>
+        <v>518675.2045613435</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518675.2045613438</v>
+        <v>518675.2045613435</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
-        <v>391781.0209280492</v>
+        <v>391781.0209280491</v>
       </c>
       <c r="F2" t="n">
         <v>391781.0209280492</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605106</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26350,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>402786.2164739867</v>
+        <v>391781.0209280491</v>
       </c>
       <c r="P2" t="n">
-        <v>391781.0209280493</v>
+        <v>391781.0209280491</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745914</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>18928.52796216484</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.596425675</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393336</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>150872.0522070762</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
         <v>26563.08616012788</v>
@@ -26430,10 +26430,10 @@
         <v>26563.08616012788</v>
       </c>
       <c r="G4" t="n">
-        <v>26937.91713981299</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020269</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26454,7 +26454,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27309.24777051758</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="P4" t="n">
         <v>26563.08616012788</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.7437169629</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,7 +26482,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024203</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32465.69765767217</v>
+        <v>4953.27324333397</v>
       </c>
       <c r="C6" t="n">
-        <v>174656.9983173821</v>
+        <v>179354.3131838298</v>
       </c>
       <c r="D6" t="n">
-        <v>174656.9983173821</v>
+        <v>210544.3481212889</v>
       </c>
       <c r="E6" t="n">
-        <v>57343.57046823646</v>
+        <v>129886.9587253626</v>
       </c>
       <c r="F6" t="n">
-        <v>291698.5924902738</v>
+        <v>291622.033935477</v>
       </c>
       <c r="G6" t="n">
-        <v>289118.9591776051</v>
+        <v>283960.5580489053</v>
       </c>
       <c r="H6" t="n">
-        <v>290509.5553704895</v>
+        <v>302889.0860110702</v>
       </c>
       <c r="I6" t="n">
-        <v>302912.3103504528</v>
+        <v>302889.0860110701</v>
       </c>
       <c r="J6" t="n">
-        <v>191897.8450054626</v>
+        <v>153497.4895853951</v>
       </c>
       <c r="K6" t="n">
-        <v>302912.3103504528</v>
+        <v>278042.1492271367</v>
       </c>
       <c r="L6" t="n">
-        <v>302912.3103504528</v>
+        <v>302889.0860110701</v>
       </c>
       <c r="M6" t="n">
-        <v>107311.1310673851</v>
+        <v>167899.1413980669</v>
       </c>
       <c r="N6" t="n">
-        <v>302912.3103504528</v>
+        <v>302889.0860110702</v>
       </c>
       <c r="O6" t="n">
-        <v>299162.7326202711</v>
+        <v>291622.0339354769</v>
       </c>
       <c r="P6" t="n">
-        <v>291698.5924902739</v>
+        <v>291622.0339354769</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>231.1556571199936</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>187.4906859516495</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>143.0167049283502</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>196.5824076286897</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>3.742286579561437</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>103.8569235685964</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>33.58904338006388</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>67.88420416844608</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>11.18956716623529</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151079231931362e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.817746119239018e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>527.3158022709912</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320323</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>226.0938963909771</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>371.7091627680287</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,7 +35665,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>541.653892043837</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960961</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504358</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080454</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36756,10 +36756,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908073</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -37476,10 +37476,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37701,19 +37701,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37783,10 +37783,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -37953,7 +37953,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38029,16 +38029,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
